--- a/service_ticket_analysis/chart_and_references.xlsx
+++ b/service_ticket_analysis/chart_and_references.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27716"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27723"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jksmi\Documents\service_ticket_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B0DD8EB-D1BE-4312-9B53-2317CA360282}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{169BECF8-D185-4A68-9B7E-9D7C2498090E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A6D0CDDD-9A2B-483E-8375-8A807E52D737}"/>
   </bookViews>
@@ -16,9 +16,6 @@
     <sheet name="tickets_closed_chart" sheetId="1" r:id="rId1"/>
     <sheet name="references" sheetId="2" r:id="rId2"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -675,7 +672,7 @@
                   <c:v>13199</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8414</c:v>
+                  <c:v>8514</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1553,7 +1550,7 @@
                 <a:srgbClr val="EA110C"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>4,092</a:t>
+            <a:t>3,992</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
@@ -1565,83 +1562,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="tickets_2022"/>
-      <sheetName val="tickets_2023"/>
-      <sheetName val="metrics"/>
-      <sheetName val="tickets_closed_chart"/>
-      <sheetName val="references"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1">
-            <v>2022</v>
-          </cell>
-          <cell r="C1">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Critical</v>
-          </cell>
-          <cell r="B2">
-            <v>5015</v>
-          </cell>
-          <cell r="C2">
-            <v>6196</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>High</v>
-          </cell>
-          <cell r="B3">
-            <v>7657</v>
-          </cell>
-          <cell r="C3">
-            <v>9112</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Low</v>
-          </cell>
-          <cell r="B4">
-            <v>11392</v>
-          </cell>
-          <cell r="C4">
-            <v>13199</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Medium</v>
-          </cell>
-          <cell r="B5">
-            <v>12506</v>
-          </cell>
-          <cell r="C5">
-            <v>8414</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1964,7 +1884,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2027,7 +1947,7 @@
         <v>12506</v>
       </c>
       <c r="C5" s="1">
-        <v>8414</v>
+        <v>8514</v>
       </c>
     </row>
   </sheetData>
